--- a/test/test_metadata.xlsx
+++ b/test/test_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdstengl/Google_Drive/Projects/CDC_Tick_Surveillance/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBA656-24E0-0642-A219-65986D5E444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F28479-57B3-444C-BBBB-53D9EC7F7A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35320" windowHeight="19440" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Plate position</t>
   </si>
@@ -100,15 +100,9 @@
     <t>Extraction_SOP_Version</t>
   </si>
   <si>
-    <t>Borrelia_andersonii_SI-10_4</t>
-  </si>
-  <si>
     <t>Borrelia_burgdorferi_B31_13</t>
   </si>
   <si>
-    <t>Borrelia_mayonii_MN14-1539_27</t>
-  </si>
-  <si>
     <t>Borrelia_miyamotoi_HT31_29</t>
   </si>
   <si>
@@ -124,52 +118,16 @@
     <t>Borrelia_burgdoreri_B31_100</t>
   </si>
   <si>
-    <t>Borrelia_andersonii</t>
-  </si>
-  <si>
-    <t>Borrelia_mayonii</t>
-  </si>
-  <si>
     <t>Borrelia_miyamotoi</t>
   </si>
   <si>
     <t>pathogen_pos</t>
   </si>
   <si>
-    <t>Anapolasm_phagocytophilum</t>
-  </si>
-  <si>
-    <t>NC21-Ticks_111-204</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>NC21_0123</t>
-  </si>
-  <si>
-    <t>B-13</t>
-  </si>
-  <si>
-    <t>T20-0450</t>
-  </si>
-  <si>
-    <t>MI21-Ticks_1-93</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>No information</t>
-  </si>
-  <si>
-    <t>D-13</t>
-  </si>
-  <si>
-    <t>Ehrlichia_EMLA</t>
   </si>
   <si>
     <t>I_pacificus</t>
@@ -212,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -259,16 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0CF52-72C2-41C0-80A7-09E8477A6B92}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +550,7 @@
     <col min="16" max="16" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -651,9 +600,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -670,10 +619,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -692,12 +641,12 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -714,10 +663,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -736,12 +685,12 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -750,20 +699,24 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>96</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -772,20 +725,32 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -795,48 +760,53 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>96</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" ref="L9" si="0">RIGHT(D9,3)</f>
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
@@ -845,50 +815,45 @@
       <c r="P9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="1">
-        <v>44287</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -896,33 +861,17 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -930,134 +879,14 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="1">
-        <v>17</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/test_metadata.xlsx
+++ b/test/test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdstengl/Google_Drive/Projects/CDC_Tick_Surveillance/Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdstengl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F28479-57B3-444C-BBBB-53D9EC7F7A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949A22BC-6102-154C-AA2A-9CA71C5E41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35320" windowHeight="19440" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,38 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
-  <si>
-    <t>Plate position</t>
-  </si>
-  <si>
-    <t>Plate Label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>life stage/sex/tissue</t>
-  </si>
-  <si>
-    <t>Date of Library Prep</t>
-  </si>
-  <si>
-    <t>Illumina  MM</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
     <t>vial</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
     <t>adult</t>
   </si>
   <si>
@@ -91,15 +70,6 @@
     <t>CSID</t>
   </si>
   <si>
-    <t>No_Samples_in_Testing_Pool</t>
-  </si>
-  <si>
-    <t>Extraction_SOP_Number</t>
-  </si>
-  <si>
-    <t>Extraction_SOP_Version</t>
-  </si>
-  <si>
     <t>Borrelia_burgdorferi_B31_13</t>
   </si>
   <si>
@@ -124,12 +94,6 @@
     <t>pathogen_pos</t>
   </si>
   <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
     <t>I_pacificus</t>
   </si>
   <si>
@@ -164,13 +128,109 @@
   </si>
   <si>
     <t>AK2019_11</t>
+  </si>
+  <si>
+    <t>Plate_Position</t>
+  </si>
+  <si>
+    <t>Plate_Label</t>
+  </si>
+  <si>
+    <t>Rerun</t>
+  </si>
+  <si>
+    <t>Date_of_Collection</t>
+  </si>
+  <si>
+    <t>Study_type</t>
+  </si>
+  <si>
+    <t>Sample_Type</t>
+  </si>
+  <si>
+    <t>Tick_Sex</t>
+  </si>
+  <si>
+    <t>Morphological_Ectoparasite_Genus_Species</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
+  </si>
+  <si>
+    <t>Host_Genus_Species</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Date_Library_Prep</t>
+  </si>
+  <si>
+    <t>Date_Illumina_Run</t>
+  </si>
+  <si>
+    <t>Illumina _MM</t>
+  </si>
+  <si>
+    <t>Illumina_Kit</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Ixodes_pacificus</t>
+  </si>
+  <si>
+    <t>Dermacentor_andersoni</t>
+  </si>
+  <si>
+    <t>Dermacentor_variabilis</t>
+  </si>
+  <si>
+    <t>Control_Borrelia_burgdoreri_B31_1000</t>
+  </si>
+  <si>
+    <t>Control_Borrelia_burgdoreri_B31_100</t>
+  </si>
+  <si>
+    <t>Control_Borrelia_miyamotoi</t>
+  </si>
+  <si>
+    <t>Control_pathogen_pos</t>
+  </si>
+  <si>
+    <t>Control_empty_fastq</t>
+  </si>
+  <si>
+    <t>Controk_I_pacificus_AK</t>
+  </si>
+  <si>
+    <t>Control_D_andersoni_AK</t>
+  </si>
+  <si>
+    <t>Control_D_variabilis_AK</t>
+  </si>
+  <si>
+    <t>Control_NC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +250,19 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,18 +280,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0CF52-72C2-41C0-80A7-09E8477A6B92}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,343 +697,301 @@
     <col min="16" max="16" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>96</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>96</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="Y10" s="1">
         <v>17</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/test_metadata.xlsx
+++ b/test/test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdstengl/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vir5\ONEDRI~1\MobaXterm\slash\RemoteFiles\394900_6_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949A22BC-6102-154C-AA2A-9CA71C5E41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677AEF40-34B1-42BB-BE6E-4693518030C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,35 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
-  <si>
-    <t>State</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>vial</t>
-  </si>
-  <si>
     <t>adult</t>
   </si>
   <si>
-    <t>Dermacentor andersoni</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>iPM3</t>
-  </si>
-  <si>
     <t>Submission_No</t>
   </si>
   <si>
-    <t>Vial_ID</t>
-  </si>
-  <si>
     <t>Pathogen_Testing_ID</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Borrelia_miyamotoi</t>
   </si>
   <si>
-    <t>pathogen_pos</t>
-  </si>
-  <si>
     <t>I_pacificus</t>
   </si>
   <si>
@@ -106,84 +85,33 @@
     <t>D_andersoni</t>
   </si>
   <si>
-    <t>NC21_0017</t>
-  </si>
-  <si>
-    <t>NC21-Ticks_17-110</t>
-  </si>
-  <si>
     <t>A-01</t>
   </si>
   <si>
     <t>AK2019_1</t>
   </si>
   <si>
-    <t>Ixodes pacificus</t>
-  </si>
-  <si>
     <t>AK2019_20</t>
   </si>
   <si>
-    <t>Dermacentor variabilis</t>
-  </si>
-  <si>
     <t>AK2019_11</t>
   </si>
   <si>
-    <t>Plate_Position</t>
-  </si>
-  <si>
-    <t>Plate_Label</t>
-  </si>
-  <si>
-    <t>Rerun</t>
-  </si>
-  <si>
-    <t>Date_of_Collection</t>
-  </si>
-  <si>
-    <t>Study_type</t>
-  </si>
-  <si>
-    <t>Sample_Type</t>
-  </si>
-  <si>
-    <t>Tick_Sex</t>
-  </si>
-  <si>
     <t>Morphological_Ectoparasite_Genus_Species</t>
   </si>
   <si>
     <t>Lifestage</t>
   </si>
   <si>
-    <t>Host_Genus_Species</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Date_Library_Prep</t>
-  </si>
-  <si>
-    <t>Date_Illumina_Run</t>
-  </si>
-  <si>
-    <t>Illumina _MM</t>
-  </si>
-  <si>
-    <t>Illumina_Kit</t>
-  </si>
-  <si>
     <t>batch</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -208,9 +136,6 @@
     <t>Control_Borrelia_miyamotoi</t>
   </si>
   <si>
-    <t>Control_pathogen_pos</t>
-  </si>
-  <si>
     <t>Control_empty_fastq</t>
   </si>
   <si>
@@ -224,6 +149,33 @@
   </si>
   <si>
     <t>Control_NC</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -272,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,19 +266,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -342,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -357,9 +296,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,317 +616,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0CF52-72C2-41C0-80A7-09E8477A6B92}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
-    <col min="16" max="16" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>96</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_metadata.xlsx
+++ b/test/test_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vir5\ONEDRI~1\MobaXterm\slash\RemoteFiles\394900_6_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vir5\ONEDRI~1\MobaXterm\slash\RemoteFiles\394900_6_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677AEF40-34B1-42BB-BE6E-4693518030C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10D648-7C05-4518-AD54-99D0DBF491D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>County</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>batch</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -655,13 +655,13 @@
         <v>23</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -669,28 +669,28 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -698,28 +698,28 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,28 +727,28 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -756,28 +756,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -785,28 +785,28 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,28 +814,28 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -843,28 +843,28 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -872,28 +872,28 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
